--- a/biology/Zoologie/Gryllotalpidae/Gryllotalpidae.xlsx
+++ b/biology/Zoologie/Gryllotalpidae/Gryllotalpidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Courtilières, Taupe-grillon
 Les Gryllotalpidae sont une famille d'Orthoptera ensifères, plus communément appelés Courtilières ou Taupes-grillons. Ce sont des insectes fouisseurs, aux pattes avant transformées pour creuser.
@@ -512,12 +524,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille a été décrite par le naturaliste britannique William Elford Leach en 1815[1].
-Le genre de référence est: Gryllotalpa Latreille, 1802
-Liste des genres
-Selon Orthoptera Species File  (19 mai 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La famille a été décrite par le naturaliste britannique William Elford Leach en 1815.
+Le genre de référence est: Gryllotalpa Latreille, 1802</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gryllotalpidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gryllotalpidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File  (19 mai 2012) :
 sous-famille Gryllotalpinae Leach, 1815
 genre Gryllotalpa Latreille, 1802
 genre Gryllotalpella Rehn, 1917
@@ -531,37 +579,69 @@
 genre Palaeoscapteriscops Martins-Neto, 1991 †
 sous-famille Scapteriscinae Zeuner, 1939
 genre Indioscaptor Nickle, 2003
-genre Scapteriscus Scudder, 1868
-Répartition par genre
-</t>
+genre Scapteriscus Scudder, 1868</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Gryllotalpidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gryllotalpidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition par genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gryllotalpidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gryllotalpidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Leach. 1815. In Brewster [Ed.]. The Edinburgh Encyclopaedia 9:119
